--- a/biology/Botanique/Araucaria_columnaris/Araucaria_columnaris.xlsx
+++ b/biology/Botanique/Araucaria_columnaris/Araucaria_columnaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pin colonnaire
 Le pin colonnaire (Araucaria columnaris) est une espèce d'Araucariacée endémique de la Nouvelle-Calédonie.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cet arbre pousse tout en hauteur, formant une colonne pouvant atteindre 60 m[1].
-Port
-En Nouvelle-Calédonie, dont il est originaire, il pousse verticalement[2]. Cependant, dans les autres régions du globe où il a été introduit, il pousse normalement jusqu'à une hauteur de 2 à 2,5 mètres puis se met à pousser en penchant vers l'équateur[3],[2]. Ainsi, les arbres plantés dans l'hémisphère nord penchent vers le sud et ceux de l'hémisphère sud penchent vers le nord[2]. Plus l'arbre se trouve loin de l'équateur et plus son inclinaison est prononcée[2]. Cette inclinaison n'est pas un phénomène marginal puisque 91 % des spécimens situés hors de la Nouvelle-Calédonie en sont affectés[2]. Sa cause est pour l'heure inexpliquée : génétique, tropisme, magnétisme[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre pousse tout en hauteur, formant une colonne pouvant atteindre 60 m.
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme 13 espèces d'Araucarias sur 19, le pin colonnaire est endémique de la Nouvelle-Calédonie.
-C'est le fameux arbre qui couvre l'Île des Pins à laquelle il a donné son nom. James Cook, en 1774, alors qu'il apercevait de son navire ces grands arbres couvrant les rivages d'une île sur laquelle il n'osa pas débarquer, la baptisa Isle of Pines.
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, dont il est originaire, il pousse verticalement. Cependant, dans les autres régions du globe où il a été introduit, il pousse normalement jusqu'à une hauteur de 2 à 2,5 mètres puis se met à pousser en penchant vers l'équateur,. Ainsi, les arbres plantés dans l'hémisphère nord penchent vers le sud et ceux de l'hémisphère sud penchent vers le nord. Plus l'arbre se trouve loin de l'équateur et plus son inclinaison est prononcée. Cette inclinaison n'est pas un phénomène marginal puisque 91 % des spécimens situés hors de la Nouvelle-Calédonie en sont affectés. Sa cause est pour l'heure inexpliquée : génétique, tropisme, magnétisme.
 </t>
         </is>
       </c>
@@ -575,14 +595,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme 13 espèces d'Araucarias sur 19, le pin colonnaire est endémique de la Nouvelle-Calédonie.
+C'est le fameux arbre qui couvre l'Île des Pins à laquelle il a donné son nom. James Cook, en 1774, alors qu'il apercevait de son navire ces grands arbres couvrant les rivages d'une île sur laquelle il n'osa pas débarquer, la baptisa Isle of Pines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Araucaria_columnaris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucaria_columnaris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la culture kanak, cet arbre est planté dans les lieux sacrés, sur l'allée centrale qui mène à la grande case et autour des habitations des hommes de haut rang[1].
-Utilisation
-Il s'agit d'une des espèces utilisées comme sapin de Noël à La Réunion. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la culture kanak, cet arbre est planté dans les lieux sacrés, sur l'allée centrale qui mène à la grande case et autour des habitations des hommes de haut rang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Araucaria_columnaris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucaria_columnaris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une des espèces utilisées comme sapin de Noël à La Réunion. 
 </t>
         </is>
       </c>
